--- a/assets/excel/Report Anggaran 2019.xlsx
+++ b/assets/excel/Report Anggaran 2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Report Anggaran 2019</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Penggunaan</t>
+  </si>
+  <si>
+    <t>Kian Falenza Fyqra</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>SPD-001/PPK.1/09/2019</t>
   </si>
 </sst>
 </file>
@@ -395,7 +404,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,11 +436,11 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>825000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C4"/>
       <c r="D4">
-        <v>825000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -439,11 +448,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1100000000</v>
-      </c>
-      <c r="C5"/>
+        <v>1000000000</v>
+      </c>
+      <c r="C5">
+        <v>4880000</v>
+      </c>
       <c r="D5">
-        <v>1100000000</v>
+        <v>995120000</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -451,11 +462,11 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>25000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C6"/>
       <c r="D6">
-        <v>25000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -476,6 +487,26 @@
       </c>
       <c r="F8" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>4880000</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Report Anggaran 2019.xlsx
+++ b/assets/excel/Report Anggaran 2019.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="141">
   <si>
     <t>Report Anggaran 2019</t>
   </si>
@@ -59,13 +59,385 @@
     <t>Penggunaan</t>
   </si>
   <si>
-    <t>Kian Falenza Fyqra</t>
-  </si>
-  <si>
-    <t>2019-09-16</t>
-  </si>
-  <si>
-    <t>SPD-001/PPK.1/09/2019</t>
+    <t>Syaiful Rachman, Ak.</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>SPD-1259/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Tri Jananto</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>SPD-1128/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>dr. Pika Novriani Lubis</t>
+  </si>
+  <si>
+    <t>2019-11-14</t>
+  </si>
+  <si>
+    <t>SPD-1192/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Nurani Ruhendri Putri</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>SPD-1079/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Anindya Fathy Andarlita</t>
+  </si>
+  <si>
+    <t>2019-11-07</t>
+  </si>
+  <si>
+    <t>SPD-1153/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Ajeng Asih Lianasari, S.S.</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>SPD-1009/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Drs. Sudjatmiko</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>SPD-1065/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>SPD-1110/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>SPD-1198/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1057/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>2019-11-08</t>
+  </si>
+  <si>
+    <t>SPD-1150/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>2019-11-20</t>
+  </si>
+  <si>
+    <t>SPD-1226/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Eri Suprayitno, S.E.</t>
+  </si>
+  <si>
+    <t>SPD-1200/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1260/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Rizky Adianhar, S.Sos.</t>
+  </si>
+  <si>
+    <t>SPD-1261/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Maira Himadhani, S.T.</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>SPD-1142/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1208/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Irfanditya Wisnu Wardana</t>
+  </si>
+  <si>
+    <t>SPD-1176/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Luthfillah Ardiansyah</t>
+  </si>
+  <si>
+    <t>Nindya Dwi Eridanny</t>
+  </si>
+  <si>
+    <t>SPD-1262/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1141/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Indra Awal Priyanto S. Kom</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>SPD-1077/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>2019-10-15</t>
+  </si>
+  <si>
+    <t>SPD-1037/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>SPD-1145/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>SPD-1147/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Ika Kartika Mamonto, SE</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
+    <t>SPD-1212/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1148/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Sasra Bouty, SE</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>SPD-1242/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Roedy Widodo</t>
+  </si>
+  <si>
+    <t>Nurturyanto, S.E.</t>
+  </si>
+  <si>
+    <t>SPD-1233/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Rahmad Suhendro</t>
+  </si>
+  <si>
+    <t>SPD-1005/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>SPD-1195/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Muriansyah Herman, S.Sos., M.Si.</t>
+  </si>
+  <si>
+    <t>Andityas Pranowo, S.Sos.I.</t>
+  </si>
+  <si>
+    <t>Iffan Al Hafiz</t>
+  </si>
+  <si>
+    <t>Hayuning Nuswantari</t>
+  </si>
+  <si>
+    <t>SPD-1046/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Moch. Chairil Anwar, S.H.</t>
+  </si>
+  <si>
+    <t>Faizal Yan Aulia, S.Fil., M.Sc.</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t>SPD-1108/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Paudeno Palega, S.M.</t>
+  </si>
+  <si>
+    <t>Hasna Khairiani Mulyana, S.Sos.</t>
+  </si>
+  <si>
+    <t>Putri Wuning Muhareni</t>
+  </si>
+  <si>
+    <t>Fikrul Hanif</t>
+  </si>
+  <si>
+    <t>Mutiara Islamiyati</t>
+  </si>
+  <si>
+    <t>Vania Nabilla Aditiarini</t>
+  </si>
+  <si>
+    <t>Trissa Diva Rusniko</t>
+  </si>
+  <si>
+    <t>Deby Septana Suryanto</t>
+  </si>
+  <si>
+    <t>Hendri Paruhuman Lubis</t>
+  </si>
+  <si>
+    <t>SPD-1258/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Prof. Dr. Irfan Idris, M.A.</t>
+  </si>
+  <si>
+    <t>Ir. Hamli M.E.</t>
+  </si>
+  <si>
+    <t>Drs. H. Herwan Chaidir</t>
+  </si>
+  <si>
+    <t>Ahadi Wijayanto, S.E.</t>
+  </si>
+  <si>
+    <t>Mellysa Padma Paramita, S.H.</t>
+  </si>
+  <si>
+    <t>Eldi Bisma Putra Mahendra</t>
+  </si>
+  <si>
+    <t>SPD-1185/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Denni Ristyawan</t>
+  </si>
+  <si>
+    <t>SPD-1263/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Rose Rosida</t>
+  </si>
+  <si>
+    <t>Rizky Putri Marsyarita, S.Pd</t>
+  </si>
+  <si>
+    <t>Tukadi</t>
+  </si>
+  <si>
+    <t>Abdul Malik, M.Ag</t>
+  </si>
+  <si>
+    <t>Novrika, SH</t>
+  </si>
+  <si>
+    <t>Dr. M. Suaib Tahir</t>
+  </si>
+  <si>
+    <t>SPD-1149/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Budi Hartawan, S.Thi</t>
+  </si>
+  <si>
+    <t>Agus Sulaiman</t>
+  </si>
+  <si>
+    <t>Noor Irawan, SE</t>
+  </si>
+  <si>
+    <t>SPD-1264/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1066/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>SPD-1074/PPK.1/10/2019</t>
+  </si>
+  <si>
+    <t>Rahmat Hidayat, S.Sos</t>
+  </si>
+  <si>
+    <t>Ari Wibowo, S. Ds</t>
+  </si>
+  <si>
+    <t>Clara Alferina Yuwono</t>
+  </si>
+  <si>
+    <t>Mila Darmayati</t>
+  </si>
+  <si>
+    <t>SPD-1265/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>SPD-1175/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Ananda Al Ghivari M.</t>
+  </si>
+  <si>
+    <t>Muhammad Rizky</t>
+  </si>
+  <si>
+    <t>Marsen Ades</t>
+  </si>
+  <si>
+    <t>Jenny Hana Sharon, S.Ikom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rifki Fernanda </t>
+  </si>
+  <si>
+    <t>Diamantin Rohadatul Aisy</t>
+  </si>
+  <si>
+    <t>Daniel Saroha,S. Ds</t>
+  </si>
+  <si>
+    <t>Nadine Christy</t>
+  </si>
+  <si>
+    <t>Servius Tumengkol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumadi </t>
+  </si>
+  <si>
+    <t>Kemal Dermawan</t>
+  </si>
+  <si>
+    <t>Ignatius Richo</t>
+  </si>
+  <si>
+    <t>Zainal Arifin, S.Sos., M.Si</t>
+  </si>
+  <si>
+    <t>SPD-1130/PPK.1/11/2019</t>
+  </si>
+  <si>
+    <t>Fanina fanindita</t>
   </si>
 </sst>
 </file>
@@ -404,7 +776,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +823,10 @@
         <v>1000000000</v>
       </c>
       <c r="C5">
-        <v>4880000</v>
+        <v>293647160</v>
       </c>
       <c r="D5">
-        <v>995120000</v>
+        <v>706352840</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -506,7 +878,3007 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>4880000</v>
+        <v>5829690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>4638000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>5012000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>3240000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>332000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5542645</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>2235771</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>5931477</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27">
+        <v>5775690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>332000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>24</v>
+      </c>
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>2101597</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>47</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>31</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>32</v>
+      </c>
+      <c r="B40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41">
+        <v>6054210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>36</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>37</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>56</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>39</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47">
+        <v>4587384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>27</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>43</v>
+      </c>
+      <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>5775690</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>47</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>5930659</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>5999000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>51</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <v>4445690</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>53</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>54</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62">
+        <v>4540000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>56</v>
+      </c>
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
+        <v>64</v>
+      </c>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+      <c r="F64">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>57</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>58</v>
+      </c>
+      <c r="B66" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>77</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>59</v>
+      </c>
+      <c r="B67" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" t="s">
+        <v>83</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67">
+        <v>2762000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>61</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" t="s">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+      <c r="F69">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>27</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>63</v>
+      </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" t="s">
+        <v>67</v>
+      </c>
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>64</v>
+      </c>
+      <c r="B72" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72">
+        <v>5775690</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>65</v>
+      </c>
+      <c r="B73" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" t="s">
+        <v>87</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+      <c r="F73">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>66</v>
+      </c>
+      <c r="B74" t="s">
+        <v>85</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>67</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>68</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
+      </c>
+      <c r="C76" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" t="s">
+        <v>68</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+      <c r="F76">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>69</v>
+      </c>
+      <c r="B77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77" t="s">
+        <v>68</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+      <c r="F77">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>70</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+      <c r="F78">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>71</v>
+      </c>
+      <c r="B79" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79" t="s">
+        <v>68</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>72</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+      <c r="F80">
+        <v>1060000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>73</v>
+      </c>
+      <c r="B81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>74</v>
+      </c>
+      <c r="B82" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>75</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+      <c r="F84">
+        <v>2235771</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>77</v>
+      </c>
+      <c r="B85" t="s">
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>27</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>78</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>79</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>80</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+      <c r="F88">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+      <c r="F89">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>82</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+      <c r="F90">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>91</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" t="s">
+        <v>56</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+      <c r="F91">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>84</v>
+      </c>
+      <c r="B92" t="s">
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>68</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>67</v>
+      </c>
+      <c r="D93" t="s">
+        <v>68</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+      <c r="F93">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>86</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>67</v>
+      </c>
+      <c r="D94" t="s">
+        <v>68</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+      <c r="F94">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>87</v>
+      </c>
+      <c r="B95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C95" t="s">
+        <v>67</v>
+      </c>
+      <c r="D95" t="s">
+        <v>68</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+      <c r="F95">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>88</v>
+      </c>
+      <c r="B96" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" t="s">
+        <v>67</v>
+      </c>
+      <c r="D96" t="s">
+        <v>68</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>89</v>
+      </c>
+      <c r="B97" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+      <c r="D97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E97" t="s">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>93</v>
+      </c>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>91</v>
+      </c>
+      <c r="B99" t="s">
+        <v>94</v>
+      </c>
+      <c r="C99" t="s">
+        <v>71</v>
+      </c>
+      <c r="D99" t="s">
+        <v>72</v>
+      </c>
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>92</v>
+      </c>
+      <c r="B100" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+      <c r="D100" t="s">
+        <v>56</v>
+      </c>
+      <c r="E100" t="s">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>2267257</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>93</v>
+      </c>
+      <c r="B101" t="s">
+        <v>95</v>
+      </c>
+      <c r="C101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D101" t="s">
+        <v>68</v>
+      </c>
+      <c r="E101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>1610000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>96</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" t="s">
+        <v>97</v>
+      </c>
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>13492426</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>95</v>
+      </c>
+      <c r="B103" t="s">
+        <v>98</v>
+      </c>
+      <c r="C103" t="s">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>4167000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>96</v>
+      </c>
+      <c r="B104" t="s">
+        <v>99</v>
+      </c>
+      <c r="C104" t="s">
+        <v>36</v>
+      </c>
+      <c r="D104" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" t="s">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>97</v>
+      </c>
+      <c r="B105" t="s">
+        <v>100</v>
+      </c>
+      <c r="C105" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" t="s">
+        <v>77</v>
+      </c>
+      <c r="E105" t="s">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>6140000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>98</v>
+      </c>
+      <c r="B106" t="s">
+        <v>101</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" t="s">
+        <v>47</v>
+      </c>
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>99</v>
+      </c>
+      <c r="B107" t="s">
+        <v>102</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+      <c r="D107" t="s">
+        <v>47</v>
+      </c>
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+      <c r="F107">
+        <v>2235771</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>100</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" t="s">
+        <v>104</v>
+      </c>
+      <c r="E108" t="s">
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>3245690</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>101</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s">
+        <v>104</v>
+      </c>
+      <c r="E109" t="s">
+        <v>6</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>102</v>
+      </c>
+      <c r="B110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>106</v>
+      </c>
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+      <c r="F110">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>103</v>
+      </c>
+      <c r="B111" t="s">
+        <v>107</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>56</v>
+      </c>
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>1392659</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>104</v>
+      </c>
+      <c r="B112" t="s">
+        <v>108</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112" t="s">
+        <v>6</v>
+      </c>
+      <c r="F112">
+        <v>5930771</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>105</v>
+      </c>
+      <c r="B113" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>106</v>
+      </c>
+      <c r="E113" t="s">
+        <v>6</v>
+      </c>
+      <c r="F113">
+        <v>2262045</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>106</v>
+      </c>
+      <c r="B114" t="s">
+        <v>110</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114">
+        <v>2972645</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>107</v>
+      </c>
+      <c r="B115" t="s">
+        <v>110</v>
+      </c>
+      <c r="C115" t="s">
+        <v>36</v>
+      </c>
+      <c r="D115" t="s">
+        <v>44</v>
+      </c>
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+      <c r="F115">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116">
+        <v>108</v>
+      </c>
+      <c r="B116" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116">
+        <v>2972645</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117">
+        <v>109</v>
+      </c>
+      <c r="B117" t="s">
+        <v>112</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>106</v>
+      </c>
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117">
+        <v>2972645</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118">
+        <v>110</v>
+      </c>
+      <c r="B118" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" t="s">
+        <v>36</v>
+      </c>
+      <c r="D118" t="s">
+        <v>44</v>
+      </c>
+      <c r="E118" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119">
+        <v>111</v>
+      </c>
+      <c r="B119" t="s">
+        <v>112</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>113</v>
+      </c>
+      <c r="E119" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120">
+        <v>112</v>
+      </c>
+      <c r="B120" t="s">
+        <v>112</v>
+      </c>
+      <c r="C120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" t="s">
+        <v>113</v>
+      </c>
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121">
+        <v>113</v>
+      </c>
+      <c r="B121" t="s">
+        <v>114</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>106</v>
+      </c>
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+      <c r="F121">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122">
+        <v>114</v>
+      </c>
+      <c r="B122" t="s">
+        <v>115</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>106</v>
+      </c>
+      <c r="E122" t="s">
+        <v>6</v>
+      </c>
+      <c r="F122">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123">
+        <v>115</v>
+      </c>
+      <c r="B123" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" t="s">
+        <v>36</v>
+      </c>
+      <c r="D123" t="s">
+        <v>44</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124">
+        <v>116</v>
+      </c>
+      <c r="B124" t="s">
+        <v>115</v>
+      </c>
+      <c r="C124" t="s">
+        <v>64</v>
+      </c>
+      <c r="D124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+      <c r="F124">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125">
+        <v>117</v>
+      </c>
+      <c r="B125" t="s">
+        <v>116</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>117</v>
+      </c>
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126">
+        <v>118</v>
+      </c>
+      <c r="B126" t="s">
+        <v>116</v>
+      </c>
+      <c r="C126" t="s">
+        <v>33</v>
+      </c>
+      <c r="D126" t="s">
+        <v>118</v>
+      </c>
+      <c r="E126" t="s">
+        <v>6</v>
+      </c>
+      <c r="F126">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127">
+        <v>119</v>
+      </c>
+      <c r="B127" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" t="s">
+        <v>119</v>
+      </c>
+      <c r="E127" t="s">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128">
+        <v>120</v>
+      </c>
+      <c r="B128" t="s">
+        <v>120</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>117</v>
+      </c>
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+      <c r="F128">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129">
+        <v>121</v>
+      </c>
+      <c r="B129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C129" t="s">
+        <v>61</v>
+      </c>
+      <c r="D129" t="s">
+        <v>62</v>
+      </c>
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+      <c r="F129">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130">
+        <v>122</v>
+      </c>
+      <c r="B130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C130" t="s">
+        <v>36</v>
+      </c>
+      <c r="D130" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" t="s">
+        <v>6</v>
+      </c>
+      <c r="F130">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131">
+        <v>123</v>
+      </c>
+      <c r="B131" t="s">
+        <v>121</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>117</v>
+      </c>
+      <c r="E131" t="s">
+        <v>6</v>
+      </c>
+      <c r="F131">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132">
+        <v>124</v>
+      </c>
+      <c r="B132" t="s">
+        <v>122</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>117</v>
+      </c>
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+      <c r="F132">
+        <v>2236477</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133">
+        <v>125</v>
+      </c>
+      <c r="B133" t="s">
+        <v>122</v>
+      </c>
+      <c r="C133" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" t="s">
+        <v>119</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134">
+        <v>126</v>
+      </c>
+      <c r="B134" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="D134" t="s">
+        <v>118</v>
+      </c>
+      <c r="E134" t="s">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135">
+        <v>127</v>
+      </c>
+      <c r="B135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>124</v>
+      </c>
+      <c r="E135" t="s">
+        <v>6</v>
+      </c>
+      <c r="F135">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136">
+        <v>128</v>
+      </c>
+      <c r="B136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>49</v>
+      </c>
+      <c r="D136" t="s">
+        <v>125</v>
+      </c>
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+      <c r="F136">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137">
+        <v>129</v>
+      </c>
+      <c r="B137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C137" t="s">
+        <v>61</v>
+      </c>
+      <c r="D137" t="s">
+        <v>62</v>
+      </c>
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+      <c r="F137">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138">
+        <v>130</v>
+      </c>
+      <c r="B138" t="s">
+        <v>123</v>
+      </c>
+      <c r="C138" t="s">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139">
+        <v>131</v>
+      </c>
+      <c r="B139" t="s">
+        <v>126</v>
+      </c>
+      <c r="C139" t="s">
+        <v>49</v>
+      </c>
+      <c r="D139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139" t="s">
+        <v>6</v>
+      </c>
+      <c r="F139">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140">
+        <v>132</v>
+      </c>
+      <c r="B140" t="s">
+        <v>126</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>124</v>
+      </c>
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+      <c r="F140">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141">
+        <v>133</v>
+      </c>
+      <c r="B141" t="s">
+        <v>126</v>
+      </c>
+      <c r="C141" t="s">
+        <v>64</v>
+      </c>
+      <c r="D141" t="s">
+        <v>65</v>
+      </c>
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+      <c r="F141">
+        <v>4587384</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142">
+        <v>134</v>
+      </c>
+      <c r="B142" t="s">
+        <v>127</v>
+      </c>
+      <c r="C142" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" t="s">
+        <v>62</v>
+      </c>
+      <c r="E142" t="s">
+        <v>6</v>
+      </c>
+      <c r="F142">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143">
+        <v>135</v>
+      </c>
+      <c r="B143" t="s">
+        <v>128</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" t="s">
+        <v>6</v>
+      </c>
+      <c r="F143">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144">
+        <v>136</v>
+      </c>
+      <c r="B144" t="s">
+        <v>129</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>117</v>
+      </c>
+      <c r="E144" t="s">
+        <v>6</v>
+      </c>
+      <c r="F144">
+        <v>2236477</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145">
+        <v>137</v>
+      </c>
+      <c r="B145" t="s">
+        <v>130</v>
+      </c>
+      <c r="C145" t="s">
+        <v>49</v>
+      </c>
+      <c r="D145" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" t="s">
+        <v>6</v>
+      </c>
+      <c r="F145">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146">
+        <v>138</v>
+      </c>
+      <c r="B146" t="s">
+        <v>130</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>124</v>
+      </c>
+      <c r="E146" t="s">
+        <v>6</v>
+      </c>
+      <c r="F146">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>139</v>
+      </c>
+      <c r="B147" t="s">
+        <v>131</v>
+      </c>
+      <c r="C147" t="s">
+        <v>36</v>
+      </c>
+      <c r="D147" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" t="s">
+        <v>6</v>
+      </c>
+      <c r="F147">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>140</v>
+      </c>
+      <c r="B148" t="s">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>124</v>
+      </c>
+      <c r="E148" t="s">
+        <v>6</v>
+      </c>
+      <c r="F148">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>141</v>
+      </c>
+      <c r="B149" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" t="s">
+        <v>21</v>
+      </c>
+      <c r="D149" t="s">
+        <v>22</v>
+      </c>
+      <c r="E149" t="s">
+        <v>6</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>142</v>
+      </c>
+      <c r="B150" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>117</v>
+      </c>
+      <c r="E150" t="s">
+        <v>6</v>
+      </c>
+      <c r="F150">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>143</v>
+      </c>
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151" t="s">
+        <v>60</v>
+      </c>
+      <c r="E151" t="s">
+        <v>6</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>144</v>
+      </c>
+      <c r="B152" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>124</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <v>2304000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>145</v>
+      </c>
+      <c r="B153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" t="s">
+        <v>36</v>
+      </c>
+      <c r="D153" t="s">
+        <v>37</v>
+      </c>
+      <c r="E153" t="s">
+        <v>6</v>
+      </c>
+      <c r="F153">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>146</v>
+      </c>
+      <c r="B154" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" t="s">
+        <v>6</v>
+      </c>
+      <c r="F154">
+        <v>5542645</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>147</v>
+      </c>
+      <c r="B155" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" t="s">
+        <v>64</v>
+      </c>
+      <c r="D155" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>6140000</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>148</v>
+      </c>
+      <c r="B156" t="s">
+        <v>137</v>
+      </c>
+      <c r="C156" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" t="s">
+        <v>77</v>
+      </c>
+      <c r="E156" t="s">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>3680000</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>149</v>
+      </c>
+      <c r="B157" t="s">
+        <v>138</v>
+      </c>
+      <c r="C157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>139</v>
+      </c>
+      <c r="E157" t="s">
+        <v>6</v>
+      </c>
+      <c r="F157">
+        <v>4812000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>150</v>
+      </c>
+      <c r="B158" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>124</v>
+      </c>
+      <c r="E158" t="s">
+        <v>6</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>151</v>
+      </c>
+      <c r="B159" t="s">
+        <v>140</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>124</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159">
+        <v>2235659</v>
       </c>
     </row>
   </sheetData>
